--- a/biology/Médecine/Institut_californien_pour_la_médecine_régénérative/Institut_californien_pour_la_médecine_régénérative.xlsx
+++ b/biology/Médecine/Institut_californien_pour_la_médecine_régénérative/Institut_californien_pour_la_médecine_régénérative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_californien_pour_la_m%C3%A9decine_r%C3%A9g%C3%A9n%C3%A9rative</t>
+          <t>Institut_californien_pour_la_médecine_régénérative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut californien pour la médecine régénérative   (en anglais California Institute for Regenerative Medecine ou CIRM) aussi connue comme agence californienne pour les cellules souches (California’s Stem cell Agency) est une initiative de l'État californien pour promouvoir les travaux sur les cellules souches et leur application à la santé humaine. Il a été créé en 2004 à la suite d'un référendum.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_californien_pour_la_m%C3%A9decine_r%C3%A9g%C3%A9n%C3%A9rative</t>
+          <t>Institut_californien_pour_la_médecine_régénérative</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine et objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CIRM est fondé dans un contexte chargé politiquement et dans le but de contrer les effets du blocage de la recherche sur les cellules souches par le président américain George W. Bush en 2001. En 2004, lors d'un référendum, la proposition 71 qui propose la création du CIRM et permettrait de placer la Californie à la pointe de la recherche sur les cellules souches est soumise au vote des Californiens qui votent en faveur de la proposition à 59% (soit environ 7 millions de votants) contre 41%.
 Le CIRM est financé sur une période de 10 ans à hauteur de 3 milliards de dollars de fonds publics levés par la vente d’obligations. Il est dirigé par un comité de pilotage composé de 29 membres (ICOC).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_californien_pour_la_m%C3%A9decine_r%C3%A9g%C3%A9n%C3%A9rative</t>
+          <t>Institut_californien_pour_la_médecine_régénérative</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Activités et impact</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CIRM a financé entre autres de nombreuses infrastructures comme des centres de recherche dédiés en Californie. Les autres financements portent sur des projets scientifiques, des essais cliniques, des projets collaboratifs avec des entreprises privées actives dans le domaine des cellules souches.
 Beaucoup de scientifiques louent l’environnement favorable à la recherche sur les cellules souches que le CIRM a créé.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_californien_pour_la_m%C3%A9decine_r%C3%A9g%C3%A9n%C3%A9rative</t>
+          <t>Institut_californien_pour_la_médecine_régénérative</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le CIRM a fait l’objet d’une série de controverses importantes. 
 En 2012, un audit par l’Académie nationale de médecine des États-Unis a révélé qu’une partie importante des membres du comité de pilotage étaient en situation de conflits d’intérêts du fait de leur appartenance à des institutions qui ont elles-mêmes directement bénéficié des financements du CIRM.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Institut_californien_pour_la_m%C3%A9decine_r%C3%A9g%C3%A9n%C3%A9rative</t>
+          <t>Institut_californien_pour_la_médecine_régénérative</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Pérennité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La campagne pour assurer l’avenir du CIRM, ou CIRM.2, a déjà commencé.
 </t>
